--- a/Evento_Palestras_Workshops.xlsx
+++ b/Evento_Palestras_Workshops.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Data</t>
   </si>
@@ -202,12 +202,24 @@
   </si>
   <si>
     <t>13:30–16:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14:00- 15:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EMPREENDEDORISMO: Trajetória de vida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucas Castelo Branco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11.000000"/>
@@ -258,11 +270,12 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1221,6 +1234,23 @@
         <v>16</v>
       </c>
     </row>
+    <row r="26" ht="14.25">
+      <c r="A26" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Evento_Palestras_Workshops.xlsx
+++ b/Evento_Palestras_Workshops.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Data</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t xml:space="preserve">Lucas Castelo Branco</t>
+  </si>
+  <si>
+    <t>13:30–15:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tráfego Pago na Prática: o caminho para crescer no digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Vitória Soares</t>
   </si>
 </sst>
 </file>
@@ -270,12 +279,15 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -796,7 +808,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -805,7 +817,7 @@
     <col bestFit="1" min="1" max="1" width="10.421875"/>
     <col bestFit="1" min="2" max="2" width="6.8515625"/>
     <col bestFit="1" customWidth="1" min="3" max="3" width="10.8515625"/>
-    <col bestFit="1" min="4" max="4" width="67.7109375"/>
+    <col customWidth="1" min="4" max="4" width="75.28125"/>
     <col bestFit="1" min="5" max="5" width="29.421875"/>
   </cols>
   <sheetData>
@@ -1249,6 +1261,23 @@
       </c>
       <c r="E26" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25">
+      <c r="A27" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Evento_Palestras_Workshops.xlsx
+++ b/Evento_Palestras_Workshops.xlsx
@@ -1265,7 +1265,7 @@
     </row>
     <row r="27" ht="14.25">
       <c r="A27" s="2">
-        <v>45918</v>
+        <v>45920</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>

--- a/Evento_Palestras_Workshops.xlsx
+++ b/Evento_Palestras_Workshops.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>Data</t>
   </si>
@@ -60,148 +60,157 @@
     <t>Tarde</t>
   </si>
   <si>
+    <t>16:00–18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PALESTRA BRIGADISTA EM AÇÃO: PREPARADO PARA QUALQUER EMERGÊNCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capitão Antônio Lira</t>
+  </si>
+  <si>
     <t>14:00–17:00</t>
   </si>
   <si>
+    <t xml:space="preserve">Atendimento Psicológico Comunitário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psicóloga Arianne Galeno</t>
+  </si>
+  <si>
+    <t>Noite</t>
+  </si>
+  <si>
+    <t>18:30–21:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raios X Desmistificados: Segurança e Proteção na Prática Radiológica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antony Charles</t>
+  </si>
+  <si>
+    <t>18:30–20:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excelência no Atendimento: Do Encantamento à Conquista de Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Salviano</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infarto à Vista: Reconheça Sinais e Salve Vidas + Suporte Básico de Vida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enf. Railane Lima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imagem Nítida, Diagnóstico Correto: Radiografia Veterinária</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samires Paiva</t>
+  </si>
+  <si>
+    <t>09:00–11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avanços em Assistência ao Recém-Nascido de Alto Risco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enf. Me. Carolina Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workshop: Vias de Administração e Técnicas de Soroterapia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacote Office na Vida Real: Controle, Planejamento e Empreendedorismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Mestre Danilo Barbosa</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>08:00–12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duana Leal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resgate em Ação: Vivência Real com Atendimento de Ambulância</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enf. Iara Brito (Equipe de Resgate)</t>
+  </si>
+  <si>
+    <t>10:00–12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRA-PI em Ação: O Futuro da Administração</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipe CRA-PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educação Financeira na Prática: Organizando Salário e Dívidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romel Meneses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Renda Extra Agora: Do Zero ao Negócio Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jerônimo Nascimento</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movimento que Transforma: Saúde, Bem-estar, Produtividade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educadora Física Kaylany Leítica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vida em Suas Mãos: Oficina de Ação Imediata em Emergências</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enf. Daryelle Cruz</t>
+  </si>
+  <si>
+    <t>14:30–17:00</t>
+  </si>
+  <si>
+    <t>19:00–20:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing Digital: Estratégias que Geram Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jornalista Júlia Albuquerque</t>
+  </si>
+  <si>
+    <t>20/09/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autodefesa e Segurança Pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof. Gil Viegas</t>
+  </si>
+  <si>
+    <t>13:30–16:30</t>
+  </si>
+  <si>
     <t xml:space="preserve">Curso Brigadista em Ação: Preparado para Qualquer Emergência</t>
   </si>
   <si>
     <t xml:space="preserve">Bombeiro Civil Érico Nunes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atendimento Psicológico Comunitário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psicóloga Arianne Galeno</t>
-  </si>
-  <si>
-    <t>Noite</t>
-  </si>
-  <si>
-    <t>18:30–21:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raios X Desmistificados: Segurança e Proteção na Prática Radiológica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antony Charles</t>
-  </si>
-  <si>
-    <t>18:30–20:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excelência no Atendimento: Do Encantamento à Conquista de Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana Salviano</t>
-  </si>
-  <si>
-    <t>17/09/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infarto à Vista: Reconheça Sinais e Salve Vidas + Suporte Básico de Vida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enf. Railane Lima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imagem Nítida, Diagnóstico Correto: Radiografia Veterinária</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samires Paiva</t>
-  </si>
-  <si>
-    <t>09:00–11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avanços em Assistência ao Recém-Nascido de Alto Risco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enf. Me. Carolina Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workshop: Vias de Administração e Técnicas de Soroterapia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pacote Office na Vida Real: Controle, Planejamento e Empreendedorismo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Mestre Danilo Barbosa</t>
-  </si>
-  <si>
-    <t>18/09/2025</t>
-  </si>
-  <si>
-    <t>08:00–12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duana Leal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resgate em Ação: Vivência Real com Atendimento de Ambulância</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enf. Iara Brito (Equipe de Resgate)</t>
-  </si>
-  <si>
-    <t>10:00–12:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRA-PI em Ação: O Futuro da Administração</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipe CRA-PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Educação Financeira na Prática: Organizando Salário e Dívidas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romel Meneses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renda Extra Agora: Do Zero ao Negócio Real</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jerônimo Nascimento</t>
-  </si>
-  <si>
-    <t>19/09/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movimento que Transforma: Saúde, Bem-estar, Produtividade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Educadora Física Kaylany Leítica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vida em Suas Mãos: Oficina de Ação Imediata em Emergências</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enf. Daryelle Cruz</t>
-  </si>
-  <si>
-    <t>14:30–17:00</t>
-  </si>
-  <si>
-    <t>19:00–20:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marketing Digital: Estratégias que Geram Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jornalista Júlia Albuquerque</t>
-  </si>
-  <si>
-    <t>20/09/2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autodefesa e Segurança Pessoal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof. Gil Viegas</t>
-  </si>
-  <si>
-    <t>13:30–16:30</t>
   </si>
   <si>
     <t xml:space="preserve">14:00- 15:30</t>
@@ -808,7 +817,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -897,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -911,16 +920,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -928,21 +937,21 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -951,15 +960,15 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -968,41 +977,41 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>9</v>
@@ -1010,118 +1019,118 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -1129,7 +1138,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1138,15 +1147,15 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1155,49 +1164,49 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -1214,36 +1223,36 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" ht="14.25">
@@ -1254,13 +1263,13 @@
         <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" ht="14.25">
@@ -1271,13 +1280,13 @@
         <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Evento_Palestras_Workshops.xlsx
+++ b/Evento_Palestras_Workshops.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Data</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t xml:space="preserve">Maria Vitória Soares</t>
+  </si>
+  <si>
+    <t>18:30-21:30</t>
   </si>
 </sst>
 </file>
@@ -817,7 +820,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1289,6 +1292,23 @@
         <v>70</v>
       </c>
     </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/Evento_Palestras_Workshops.xlsx
+++ b/Evento_Palestras_Workshops.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Data</t>
   </si>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>18:30-21:30</t>
+  </si>
+  <si>
+    <t>09:00-12:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamentos da Interpretação Radiográfica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Macêdo</t>
   </si>
 </sst>
 </file>
@@ -820,7 +829,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1309,6 +1318,23 @@
         <v>64</v>
       </c>
     </row>
+    <row r="29" ht="14.25">
+      <c r="A29" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
